--- a/dagsoppgave_ip_plan.xlsx
+++ b/dagsoppgave_ip_plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prana\Desktop\dagsoppgave\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC89F1FA-CE49-4A57-A30D-2B7DB43145A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C619F71-DE14-48F5-811D-5867ADDDCE64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D95B805C-46D1-4901-ACB9-B1CE1003AF58}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
   <si>
     <t>Name</t>
   </si>
@@ -48,7 +48,37 @@
     <t>anjani.local</t>
   </si>
   <si>
-    <t>192.168.1.1</t>
+    <t>Webserver</t>
+  </si>
+  <si>
+    <t>192.168.1.5</t>
+  </si>
+  <si>
+    <t>Domain Controller, DNS, DHCP</t>
+  </si>
+  <si>
+    <t>DNS</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>(same as parent folder)</t>
+  </si>
+  <si>
+    <t>Host (A)</t>
+  </si>
+  <si>
+    <t>www</t>
+  </si>
+  <si>
+    <t>DHCP-DC-DAGSOPPGAVE</t>
+  </si>
+  <si>
+    <t>10.12.1.110</t>
   </si>
   <si>
     <t>DHCP Scope</t>
@@ -63,49 +93,22 @@
     <t>Leasetime</t>
   </si>
   <si>
+    <t>8 days</t>
+  </si>
+  <si>
     <t>IP Range</t>
   </si>
   <si>
-    <t>2 hours</t>
-  </si>
-  <si>
-    <t>Local</t>
+    <t>LOCAL</t>
   </si>
   <si>
     <t>Scope for local clients</t>
   </si>
   <si>
-    <t>192.168.1.10 - 192.168.1.30</t>
-  </si>
-  <si>
-    <t>Webserver</t>
-  </si>
-  <si>
-    <t>192.168.1.5</t>
-  </si>
-  <si>
-    <t>Domain Controller, DNS, DHCP</t>
-  </si>
-  <si>
-    <t>DNS</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Data</t>
-  </si>
-  <si>
-    <t>(same as parent folder)</t>
-  </si>
-  <si>
-    <t>Host (A)</t>
-  </si>
-  <si>
-    <t>www</t>
-  </si>
-  <si>
-    <t>DHCP-DC-DAGSOPPGAVE</t>
+    <t>10.12.1.115</t>
+  </si>
+  <si>
+    <t>10.12.1.120 - 10.12.140</t>
   </si>
 </sst>
 </file>
@@ -466,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46F32047-BC6A-4A07-8356-8052D3BE6D21}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -492,13 +495,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -506,15 +509,18 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
-      </c>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="1"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -522,7 +528,7 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -530,84 +536,90 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
-      </c>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="1"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="A14" s="1"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" t="s">
-        <v>22</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/dagsoppgave_ip_plan.xlsx
+++ b/dagsoppgave_ip_plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prana\Desktop\dagsoppgave\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C619F71-DE14-48F5-811D-5867ADDDCE64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0E9DEEA-4DEC-42AA-B442-7F87C155EC1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D95B805C-46D1-4901-ACB9-B1CE1003AF58}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
   <si>
     <t>Name</t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>Webserver</t>
-  </si>
-  <si>
-    <t>192.168.1.5</t>
   </si>
   <si>
     <t>Domain Controller, DNS, DHCP</t>
@@ -471,8 +468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46F32047-BC6A-4A07-8356-8052D3BE6D21}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -495,13 +492,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
         <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -512,7 +509,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -520,7 +517,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -528,7 +525,7 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -536,31 +533,31 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
         <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
         <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -571,7 +568,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
@@ -579,23 +576,23 @@
         <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
@@ -603,23 +600,23 @@
         <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/dagsoppgave_ip_plan.xlsx
+++ b/dagsoppgave_ip_plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prana\Desktop\dagsoppgave\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0E9DEEA-4DEC-42AA-B442-7F87C155EC1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43DB8D1A-D132-4CB3-BDC2-665ACEC27CD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D95B805C-46D1-4901-ACB9-B1CE1003AF58}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>Name</t>
   </si>
@@ -106,6 +106,15 @@
   </si>
   <si>
     <t>10.12.1.120 - 10.12.140</t>
+  </si>
+  <si>
+    <t>ELEV-LAB-01</t>
+  </si>
+  <si>
+    <t>Gateway</t>
+  </si>
+  <si>
+    <t>10.12.1.1</t>
   </si>
 </sst>
 </file>
@@ -468,8 +477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46F32047-BC6A-4A07-8356-8052D3BE6D21}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -492,28 +501,36 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="1"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
